--- a/data/trans_orig/IP1014-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{560A270B-B170-4344-ABBE-6EB556CDD4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA916839-DCA1-449F-A079-527944CE068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{923680D2-C34F-446D-8165-616FF5657587}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42D02570-BF3D-4C6D-ACE2-AA3B89AD0BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="129">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -103,37 +103,37 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>3,71%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,27%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,22%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -142,304 +142,286 @@
     <t>0,44%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -854,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77434C0F-0559-4755-AA05-7104580C28AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E129568D-894B-44F6-AC96-E9DB38D7F768}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1303,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1312,13 +1294,13 @@
         <v>2084</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,13 +1315,13 @@
         <v>474907</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -1351,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -1363,13 +1345,13 @@
         <v>890994</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,7 +1407,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1437,13 +1419,13 @@
         <v>673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1458,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1467,13 +1449,13 @@
         <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,10 +1470,10 @@
         <v>157465</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1506,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -1518,10 +1500,10 @@
         <v>331532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1592,13 +1574,13 @@
         <v>3399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1607,13 +1589,13 @@
         <v>642</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1622,13 +1604,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,13 +1625,13 @@
         <v>719301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>1017</v>
@@ -1658,10 +1640,10 @@
         <v>680379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1673,13 +1655,13 @@
         <v>1399680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,7 +1717,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7568FC6-144F-42D2-9B32-8E4694C4E0A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3494E9F5-433C-4FC2-890D-E25116B0C49B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1772,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2028,13 +2010,13 @@
         <v>624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2049,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2058,13 +2040,13 @@
         <v>624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,10 +2061,10 @@
         <v>82913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2097,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2109,10 +2091,10 @@
         <v>174801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2183,13 +2165,13 @@
         <v>3275</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2198,13 +2180,13 @@
         <v>896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2216,10 +2198,10 @@
         <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2216,13 @@
         <v>489129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H11" s="7">
         <v>650</v>
@@ -2249,10 +2231,10 @@
         <v>448804</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2264,13 +2246,13 @@
         <v>937933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2338,13 +2320,13 @@
         <v>793</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2353,13 +2335,13 @@
         <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2368,13 +2350,13 @@
         <v>1236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,10 +2371,10 @@
         <v>170768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2404,10 +2386,10 @@
         <v>164897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2419,10 +2401,10 @@
         <v>335665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2493,13 +2475,13 @@
         <v>4691</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2508,13 +2490,13 @@
         <v>1339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2523,13 +2505,13 @@
         <v>6030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2526,13 @@
         <v>743451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -2559,10 +2541,10 @@
         <v>705589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2574,13 +2556,13 @@
         <v>1449040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2618,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A45E22-38E6-48B0-8EFC-E74584E4D403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E2083B-1845-42C0-A5ED-4238A9729994}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2673,7 +2655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2917,13 +2899,13 @@
         <v>662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2938,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2947,13 +2929,13 @@
         <v>662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,10 +2950,10 @@
         <v>67952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2986,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2998,10 +2980,10 @@
         <v>127331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3072,13 +3054,13 @@
         <v>1333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3093,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3102,13 +3084,13 @@
         <v>1333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,10 +3105,10 @@
         <v>487402</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3141,7 +3123,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -3153,10 +3135,10 @@
         <v>959692</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3215,7 +3197,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3263,7 +3245,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3382,13 +3364,13 @@
         <v>1995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3403,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3412,13 +3394,13 @@
         <v>1995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3415,13 @@
         <v>742849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>1061</v>
@@ -3451,7 +3433,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -3463,13 +3445,13 @@
         <v>1447220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3507,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1014-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA916839-DCA1-449F-A079-527944CE068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{107A37D0-D441-40F0-9EE6-0F35DB8E60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42D02570-BF3D-4C6D-ACE2-AA3B89AD0BF1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8F68FC84-5B83-449A-9049-2B34CDEE224A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="133">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,361 +67,373 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>98,73%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>99,22%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>6,02%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>93,98%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -836,8 +848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E129568D-894B-44F6-AC96-E9DB38D7F768}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ED5EEB-8E6C-4053-8DB8-D323360F8F88}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -954,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -969,81 +981,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>642</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86203</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>176428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1052,151 +1068,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>2084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1284</v>
+        <v>2084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7">
-        <v>86202</v>
+        <v>416087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>716</v>
       </c>
       <c r="I8" s="7">
-        <v>90225</v>
+        <v>474907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>264</v>
+        <v>1344</v>
       </c>
       <c r="N8" s="7">
-        <v>176428</v>
+        <v>890994</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,153 +1223,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2084</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>716</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>474907</v>
+        <v>174066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>416087</v>
+        <v>157465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1344</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>890994</v>
+        <v>331532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,54 +1378,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1416,97 +1434,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>4041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="7">
-        <v>157465</v>
+        <v>680379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>1080</v>
       </c>
       <c r="I14" s="7">
-        <v>174066</v>
+        <v>718575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>2097</v>
       </c>
       <c r="N14" s="7">
-        <v>331532</v>
+        <v>1398954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,216 +1533,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3399</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>642</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4041</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D17" s="7">
-        <v>719301</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>680379</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1399680</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1737,8 +1599,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3494E9F5-433C-4FC2-890D-E25116B0C49B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEA65F0-68FE-44E2-BA9C-38523463C570}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1754,7 +1616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1861,90 +1723,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>624</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82913</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,52 +1819,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2007,97 +1875,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>624</v>
+        <v>896</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>624</v>
+        <v>4170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>82913</v>
+        <v>448804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>700</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>489129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>1350</v>
       </c>
       <c r="N8" s="7">
-        <v>174801</v>
+        <v>937933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,153 +1974,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3275</v>
+        <v>443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>896</v>
+        <v>793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>4170</v>
+        <v>1236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>700</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>489129</v>
+        <v>164897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>448804</v>
+        <v>170768</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1350</v>
+        <v>475</v>
       </c>
       <c r="N11" s="7">
-        <v>937933</v>
+        <v>335665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,153 +2129,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>793</v>
+        <v>1339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>4691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>1236</v>
+        <v>6030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>242</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="7">
-        <v>170768</v>
+        <v>705589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>1058</v>
       </c>
       <c r="I14" s="7">
-        <v>164897</v>
+        <v>742810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
-        <v>475</v>
+        <v>2074</v>
       </c>
       <c r="N14" s="7">
-        <v>335665</v>
+        <v>1448399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,216 +2284,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>4691</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1339</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6030</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D17" s="7">
-        <v>743451</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705589</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2075</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1449040</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2638,8 +2350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E2083B-1845-42C0-A5ED-4238A9729994}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C161004-2FAA-41E3-82AC-06312F807A18}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2655,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2758,86 +2470,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>662</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>662</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67952</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127331</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,147 +2570,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>662</v>
+        <v>1333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>714</v>
       </c>
       <c r="D8" s="7">
-        <v>67952</v>
+        <v>472290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>487402</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>187</v>
+        <v>1407</v>
       </c>
       <c r="N8" s="7">
-        <v>127331</v>
+        <v>959692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,72 +2725,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3069,79 +2799,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1333</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>693</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>487402</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>1407</v>
+        <v>529</v>
       </c>
       <c r="N11" s="7">
-        <v>959692</v>
+        <v>360197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,54 +2880,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3209,94 +2939,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1062</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>742849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
-        <v>529</v>
+        <v>2123</v>
       </c>
       <c r="N14" s="7">
-        <v>360197</v>
+        <v>1447220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,216 +3035,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1995</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1995</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742849</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1447220</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
